--- a/geometric_data.xlsx
+++ b/geometric_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48519\Desktop\SAE\saeregular2022\obliczenia MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48519\Desktop\SAE\saeregular2022\matlab calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB457F-2E69-4F10-8DE1-BD1E8E48EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9D7EA2-8367-4EE5-BD2F-2343EBB0CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>R23_LR315_120in_AR_5,53_T1-12_0 m_s-VLM2</t>
   </si>
@@ -91,6 +91,60 @@
   </si>
   <si>
     <t>SCA</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_8,00_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_8,99_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_9,98_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_10,96_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_12,01_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_13,03_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_12,01_HS_0,75_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_120in_AR_5,53_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_120in_AR_6,53_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_120in_AR_7,99_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_168in_AR_8,06_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_168in_AR_9,34_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_168in_AR_11,08_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_192in_AR_8,46_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_192in_AR_10,06_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_192in_AR_12,00_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_9,34_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_10,65_TX-12_0 m_s-VLM2</t>
   </si>
 </sst>
 </file>
@@ -145,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -213,12 +267,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -235,6 +318,11 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -516,19 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
@@ -568,8 +656,65 @@
       <c r="N1" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -612,8 +757,65 @@
       <c r="N2" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="8">
+        <v>216</v>
+      </c>
+      <c r="P2" s="8">
+        <v>216</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>216</v>
+      </c>
+      <c r="R2" s="8">
+        <v>216</v>
+      </c>
+      <c r="S2" s="8">
+        <v>216</v>
+      </c>
+      <c r="T2" s="8">
+        <v>216</v>
+      </c>
+      <c r="U2" s="8">
+        <v>216</v>
+      </c>
+      <c r="V2" s="8">
+        <v>120</v>
+      </c>
+      <c r="W2" s="8">
+        <v>120</v>
+      </c>
+      <c r="X2" s="8">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>168</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>168</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>192</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>192</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>192</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -656,8 +858,65 @@
       <c r="N3" s="10">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="16">
+        <v>8</v>
+      </c>
+      <c r="P3" s="20">
+        <v>8.99</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>9.98</v>
+      </c>
+      <c r="R3" s="20">
+        <v>10.96</v>
+      </c>
+      <c r="S3" s="20">
+        <v>10.96</v>
+      </c>
+      <c r="T3" s="20">
+        <v>13.03</v>
+      </c>
+      <c r="U3" s="20">
+        <v>12.01</v>
+      </c>
+      <c r="V3" s="9">
+        <v>5.5309999999999997</v>
+      </c>
+      <c r="W3" s="9">
+        <v>6.5309999999999997</v>
+      </c>
+      <c r="X3" s="10">
+        <v>7.99</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>8.0609999999999999</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>9.3409999999999993</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>11.081</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>8.4610000000000003</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>10.061</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>9.3409999999999993</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>10.651</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>12.010999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -700,8 +959,65 @@
       <c r="N4" s="11">
         <v>1.163</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O4" s="17">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="P4" s="17">
+        <v>3.3490000000000002</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>3.016</v>
+      </c>
+      <c r="R4" s="17">
+        <v>2.746</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2.746</v>
+      </c>
+      <c r="T4" s="17">
+        <v>2.31</v>
+      </c>
+      <c r="U4" s="17">
+        <v>2.5059999999999998</v>
+      </c>
+      <c r="V4" s="11">
+        <v>1.681</v>
+      </c>
+      <c r="W4" s="11">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="X4" s="11">
+        <v>1.163</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>2.5059999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -744,8 +1060,65 @@
       <c r="N5" s="8">
         <v>3.4571000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="8">
+        <v>6.5750000000000002</v>
+      </c>
+      <c r="P5" s="8">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>5.4409999999999998</v>
+      </c>
+      <c r="R5" s="8">
+        <v>5.0949999999999998</v>
+      </c>
+      <c r="S5" s="8">
+        <v>5.0949999999999998</v>
+      </c>
+      <c r="T5" s="8">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="U5" s="8">
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="V5" s="8">
+        <v>4.3559000000000001</v>
+      </c>
+      <c r="W5" s="8">
+        <v>3.8664999999999998</v>
+      </c>
+      <c r="X5" s="8">
+        <v>3.4571000000000001</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>4.5873999999999997</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>4.1689999999999996</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>3.8182</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>4.7314999999999996</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>4.4713000000000003</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>4.0593000000000004</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>5.2796099999999999</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>4.8044000000000002</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>4.4691999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -788,8 +1161,65 @@
       <c r="N6" s="12">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0.59</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0.59</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T6" s="18">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -832,8 +1262,65 @@
       <c r="N7" s="14">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="19">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0.622</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0.495</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -842,7 +1329,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -851,7 +1338,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -860,7 +1347,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -884,7 +1371,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -899,7 +1386,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -914,7 +1401,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>

--- a/geometric_data.xlsx
+++ b/geometric_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48519\Desktop\SAE\saeregular2022\matlab calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48519\Desktop\SAE\saeregular2022\obliczenia MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9D7EA2-8367-4EE5-BD2F-2343EBB0CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB457F-2E69-4F10-8DE1-BD1E8E48EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>R23_LR315_120in_AR_5,53_T1-12_0 m_s-VLM2</t>
   </si>
@@ -91,60 +91,6 @@
   </si>
   <si>
     <t>SCA</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_8,00_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_8,99_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_9,98_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_10,96_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_12,01_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_13,03_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_12,01_HS_0,75_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_120in_AR_5,53_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_120in_AR_6,53_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_120in_AR_7,99_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_168in_AR_8,06_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_168in_AR_9,34_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_168in_AR_11,08_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_192in_AR_8,46_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_192in_AR_10,06_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_192in_AR_12,00_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_9,34_TX-12_0 m_s-VLM2</t>
-  </si>
-  <si>
-    <t>R23_LR315_216in_AR_10,65_TX-12_0 m_s-VLM2</t>
   </si>
 </sst>
 </file>
@@ -199,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -267,41 +213,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -318,11 +235,6 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -604,19 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
@@ -656,65 +568,8 @@
       <c r="N1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -757,65 +612,8 @@
       <c r="N2" s="8">
         <v>120</v>
       </c>
-      <c r="O2" s="8">
-        <v>216</v>
-      </c>
-      <c r="P2" s="8">
-        <v>216</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>216</v>
-      </c>
-      <c r="R2" s="8">
-        <v>216</v>
-      </c>
-      <c r="S2" s="8">
-        <v>216</v>
-      </c>
-      <c r="T2" s="8">
-        <v>216</v>
-      </c>
-      <c r="U2" s="8">
-        <v>216</v>
-      </c>
-      <c r="V2" s="8">
-        <v>120</v>
-      </c>
-      <c r="W2" s="8">
-        <v>120</v>
-      </c>
-      <c r="X2" s="8">
-        <v>120</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>168</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>168</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>192</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>192</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>192</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>216</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>216</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -858,65 +656,8 @@
       <c r="N3" s="10">
         <v>7.99</v>
       </c>
-      <c r="O3" s="16">
-        <v>8</v>
-      </c>
-      <c r="P3" s="20">
-        <v>8.99</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>9.98</v>
-      </c>
-      <c r="R3" s="20">
-        <v>10.96</v>
-      </c>
-      <c r="S3" s="20">
-        <v>10.96</v>
-      </c>
-      <c r="T3" s="20">
-        <v>13.03</v>
-      </c>
-      <c r="U3" s="20">
-        <v>12.01</v>
-      </c>
-      <c r="V3" s="9">
-        <v>5.5309999999999997</v>
-      </c>
-      <c r="W3" s="9">
-        <v>6.5309999999999997</v>
-      </c>
-      <c r="X3" s="10">
-        <v>7.99</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>8.0609999999999999</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>9.3409999999999993</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>11.081</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>8.4610000000000003</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>10.061</v>
-      </c>
-      <c r="AD3" s="9">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="9">
-        <v>9.3409999999999993</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>10.651</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>12.010999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -959,65 +700,8 @@
       <c r="N4" s="11">
         <v>1.163</v>
       </c>
-      <c r="O4" s="17">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="P4" s="17">
-        <v>3.3490000000000002</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>3.016</v>
-      </c>
-      <c r="R4" s="17">
-        <v>2.746</v>
-      </c>
-      <c r="S4" s="17">
-        <v>2.746</v>
-      </c>
-      <c r="T4" s="17">
-        <v>2.31</v>
-      </c>
-      <c r="U4" s="17">
-        <v>2.5059999999999998</v>
-      </c>
-      <c r="V4" s="11">
-        <v>1.681</v>
-      </c>
-      <c r="W4" s="11">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="X4" s="11">
-        <v>1.163</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>2.2589999999999999</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>1.9490000000000001</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>1.6439999999999999</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>1.9810000000000001</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>2.8250000000000002</v>
-      </c>
-      <c r="AG4" s="11">
-        <v>2.5059999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1060,65 +744,8 @@
       <c r="N5" s="8">
         <v>3.4571000000000001</v>
       </c>
-      <c r="O5" s="8">
-        <v>6.5750000000000002</v>
-      </c>
-      <c r="P5" s="8">
-        <v>5.9189999999999996</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>5.4409999999999998</v>
-      </c>
-      <c r="R5" s="8">
-        <v>5.0949999999999998</v>
-      </c>
-      <c r="S5" s="8">
-        <v>5.0949999999999998</v>
-      </c>
-      <c r="T5" s="8">
-        <v>4.5720000000000001</v>
-      </c>
-      <c r="U5" s="8">
-        <v>4.8040000000000003</v>
-      </c>
-      <c r="V5" s="8">
-        <v>4.3559000000000001</v>
-      </c>
-      <c r="W5" s="8">
-        <v>3.8664999999999998</v>
-      </c>
-      <c r="X5" s="8">
-        <v>3.4571000000000001</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>4.5873999999999997</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>4.1689999999999996</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>3.8182</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>4.7314999999999996</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>4.4713000000000003</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>4.0593000000000004</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>5.2796099999999999</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>4.8044000000000002</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>4.4691999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1161,65 +788,8 @@
       <c r="N6" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O6" s="18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0.59</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>0.59</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="T6" s="18">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="U6" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V6" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="W6" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="X6" s="12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>0.51</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>0.53</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1262,65 +832,8 @@
       <c r="N7" s="14">
         <v>0.39</v>
       </c>
-      <c r="O7" s="19">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0.622</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="S7" s="19">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="T7" s="19">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="U7" s="19">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="X7" s="14">
-        <v>0.39</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>0.495</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1329,7 +842,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1338,7 +851,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1347,7 +860,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1371,7 +884,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1386,7 +899,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -1401,7 +914,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>

--- a/geometric_data.xlsx
+++ b/geometric_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48519\Desktop\SAE\saeregular2022\matlab calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9D7EA2-8367-4EE5-BD2F-2343EBB0CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907475B6-0F92-45E1-B601-C0E819278EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>R23_LR315_120in_AR_5,53_T1-12_0 m_s-VLM2</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>R23_LR315_216in_AR_10,65_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_MW01_216in_AR_15,02</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_15,02</t>
+  </si>
+  <si>
+    <t>R23_PP02_8%c_216in_AR_15,02_v4</t>
+  </si>
+  <si>
+    <t>R23_PP02_8%c_216in_AR_14,01_v2</t>
+  </si>
+  <si>
+    <t>R23_MW01_216in_AR_14,01</t>
+  </si>
+  <si>
+    <t>R23_LR315_216in_AR_14,01_TX-12_0 m_s-VLM2</t>
   </si>
 </sst>
 </file>
@@ -199,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -296,12 +314,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -323,6 +352,7 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -604,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +646,7 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
@@ -713,8 +743,26 @@
       <c r="AG1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -814,8 +862,26 @@
       <c r="AG2" s="8">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -915,8 +981,26 @@
       <c r="AG3" s="9">
         <v>12.010999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH3" s="21">
+        <v>15.02</v>
+      </c>
+      <c r="AI3" s="21">
+        <v>15.02</v>
+      </c>
+      <c r="AJ3" s="21">
+        <v>15.02</v>
+      </c>
+      <c r="AK3" s="21">
+        <v>14.01</v>
+      </c>
+      <c r="AL3" s="21">
+        <v>14.01</v>
+      </c>
+      <c r="AM3" s="21">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1016,8 +1100,26 @@
       <c r="AG4" s="11">
         <v>2.5059999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="17">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="AL4" s="17">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="AM4" s="17">
+        <v>2.1469999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1117,8 +1219,26 @@
       <c r="AG5" s="8">
         <v>4.4691999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH5" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1218,8 +1338,26 @@
       <c r="AG6" s="12">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1319,8 +1457,26 @@
       <c r="AG7" s="13">
         <v>0.46700000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH7" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="AJ7" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="AM7" s="19">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1329,7 +1485,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1338,7 +1494,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1347,7 +1503,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1371,7 +1527,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1386,7 +1542,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -1401,7 +1557,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>

--- a/geometric_data.xlsx
+++ b/geometric_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48519\Desktop\SAE\saeregular2022\matlab calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907475B6-0F92-45E1-B601-C0E819278EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B88B57B-9208-47F2-A60C-1D9F4DA0C480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>R23_LR315_120in_AR_5,53_T1-12_0 m_s-VLM2</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>R23_LR315_216in_AR_14,01_TX-12_0 m_s-VLM2</t>
+  </si>
+  <si>
+    <t>R23_02_203_202_PP02_216in_AR_15,02</t>
+  </si>
+  <si>
+    <t>R23_01_006_202_PP02_216in_AR15,02</t>
   </si>
 </sst>
 </file>
@@ -634,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +652,7 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
@@ -761,8 +767,14 @@
       <c r="AM1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -880,8 +892,14 @@
       <c r="AM2" s="8">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN2" s="8">
+        <v>216</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -999,8 +1017,14 @@
       <c r="AM3" s="21">
         <v>14.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN3" s="21">
+        <v>15.02</v>
+      </c>
+      <c r="AO3" s="21">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1118,8 +1142,14 @@
       <c r="AM4" s="17">
         <v>2.1469999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1237,8 +1267,14 @@
       <c r="AM5" s="8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN5" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1356,8 +1392,14 @@
       <c r="AM6" s="18">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1475,8 +1517,14 @@
       <c r="AM7" s="19">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN7" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="AO7" s="19">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1485,7 +1533,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1494,7 +1542,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1503,7 +1551,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1527,7 +1575,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1542,7 +1590,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -1557,7 +1605,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
